--- a/Datas/Export Inscription FaceToFace pour admin Formateur-Test.xlsx
+++ b/Datas/Export Inscription FaceToFace pour admin Formateur-Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tmhe-my.sharepoint.com/personal/christophe_desandiego_fr_toyota-industries_eu/Documents/Dokument/00-Documents_AE/Documents A_E/00-Dev/Generator/Datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="11_27B79DAFA2D8E162012D8E4FBC0EA568A06280CE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24908EE1-8317-4054-8AEC-377CE82D7B5B}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="11_27B79DAFA2D8E162012D8E4FBC0EA568A06280CE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{239FB2B9-2C24-4474-ACE4-1549239C2810}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Export Inscription FaceToFace p" sheetId="1" r:id="rId1"/>
@@ -6041,13 +6041,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q671"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H195" sqref="H195"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="6" max="6" width="47.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="43.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="19.28515625" customWidth="1"/>
+    <col min="16" max="16" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
